--- a/biology/Médecine/Philippe_Boxho/Philippe_Boxho.xlsx
+++ b/biology/Médecine/Philippe_Boxho/Philippe_Boxho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Boxho, né le 15 juin 1965 à Liège, est un médecin légiste et criminologue belge, auteur de livres à succès.   
 Il est principalement connu pour ses passages dans l'émission Legend de Guillaume Pley, qui ont chacun fait l'objet de nombreux visionnages sur la plateforme YouTube.   
@@ -512,9 +524,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catholique dans sa jeunesse, il souhaite initialement devenir prêtre mais, lors d'un séjour à Lourdes à l'été 1983, l'évêque de son diocèse, Guillaume-Marie van Zuylen, lui conseille plutôt de se lancer dans des études à l'université. Hésitant initialement entre le droit et la médecine, il opte finalement pour la seconde option[1],[2]. Il décide de s'orienter vers la médecine légale à la suite d'un stage à l'Institut de médecine légale de l'université de Liège en 1987 : « J’ai rencontré le professeur Armand André, qui le dirigeait. Dans les années 90, le professeur Brahy a succédé au professeur Armand André. En 1991, le professeur Brahy m’a proposé de venir au service de médecine légale »[3]. Il étudie la médecine générale en parallèle de la médecine légale jusqu'en 1993, année d'obtention de sa licence en médecine d'expertise[4]. De 1996 à 2000, il rédige sa thèse de doctorat en criminologie[3]. Il est également diplômé en anthropologie judiciaire du Smithsonian Institute et de l'université de Leyde[5].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catholique dans sa jeunesse, il souhaite initialement devenir prêtre mais, lors d'un séjour à Lourdes à l'été 1983, l'évêque de son diocèse, Guillaume-Marie van Zuylen, lui conseille plutôt de se lancer dans des études à l'université. Hésitant initialement entre le droit et la médecine, il opte finalement pour la seconde option,. Il décide de s'orienter vers la médecine légale à la suite d'un stage à l'Institut de médecine légale de l'université de Liège en 1987 : « J’ai rencontré le professeur Armand André, qui le dirigeait. Dans les années 90, le professeur Brahy a succédé au professeur Armand André. En 1991, le professeur Brahy m’a proposé de venir au service de médecine légale ». Il étudie la médecine générale en parallèle de la médecine légale jusqu'en 1993, année d'obtention de sa licence en médecine d'expertise. De 1996 à 2000, il rédige sa thèse de doctorat en criminologie. Il est également diplômé en anthropologie judiciaire du Smithsonian Institute et de l'université de Leyde.  
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il effectue la majeure partie de sa carrière dans les provinces de Liège et du Luxembourg belge, réalisant environ 6 000 examens de cadavres, plus de 3 000 autopsies (entre 2 000 et 2 800 selon une autre déclaration) et plus de 300 interventions devant des cours d'assises[6],[7]. Il est notamment sollicité sur les affaires de la catastrophe de Stavelot, de l'assassinat de Stacy et Nathalie (en) (qu'il qualifie de « pire meurtre » qu'il a connu), de la catastrophe de la rue Léopold, de la tuerie de la place Saint-Lambert et de l'attaque du boulevard d'Avroy[8],[9].
-Depuis la rentrée 2001, il enseigne en tant que professeur docteur à l'université de Liège, dont il dirige également l'Institut de médecine légale[2],[10]. 
-En septembre 2010, il est élu président de l'École liégeoise de criminologie Jean Constant avec prise de fonctions le 1er octobre[11].
-Le 26 octobre 2013, il est élu membre de l'académie royale de médecine de Belgique[12]. 
-Le 20 juin 2020, il est élu vice-président francophone du Conseil National de l'Ordre des médecins de Belgique[13]. Le 24 janvier 2022, il annonce sa démission, effective à partir du 31 mars[14]. 
-Le 19 octobre 2022, il est élu président du Conseil d'administration du CHU de Liège[4]. 
-En 2023-2024, ses livres Les morts ont la parole et Entretien avec un cadavre rencontrent un succès important à la suite de ses passages dans l'émission LEGEND de Guillaume Pley, chacun totalisant plusieurs millions de visionnages[15],[16],[17],[18],[19],[20]. Les ventes de ces livres (plus de 100 000 pour le premier, plus de 100 000 pour le deuxième) évitent de justesse la faillite à son éditeur[20],[21],[22]. Dans le sillage de son succès, il est victime d'usurpation d'identité sur internet[23]. Le 28 mars 2024, il est élu « Liégeois de l'année 2023 » dans la catégorie Citoyenneté par les lecteurs de La Meuse[19],[24],[25].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue la majeure partie de sa carrière dans les provinces de Liège et du Luxembourg belge, réalisant environ 6 000 examens de cadavres, plus de 3 000 autopsies (entre 2 000 et 2 800 selon une autre déclaration) et plus de 300 interventions devant des cours d'assises,. Il est notamment sollicité sur les affaires de la catastrophe de Stavelot, de l'assassinat de Stacy et Nathalie (en) (qu'il qualifie de « pire meurtre » qu'il a connu), de la catastrophe de la rue Léopold, de la tuerie de la place Saint-Lambert et de l'attaque du boulevard d'Avroy,.
+Depuis la rentrée 2001, il enseigne en tant que professeur docteur à l'université de Liège, dont il dirige également l'Institut de médecine légale,. 
+En septembre 2010, il est élu président de l'École liégeoise de criminologie Jean Constant avec prise de fonctions le 1er octobre.
+Le 26 octobre 2013, il est élu membre de l'académie royale de médecine de Belgique. 
+Le 20 juin 2020, il est élu vice-président francophone du Conseil National de l'Ordre des médecins de Belgique. Le 24 janvier 2022, il annonce sa démission, effective à partir du 31 mars. 
+Le 19 octobre 2022, il est élu président du Conseil d'administration du CHU de Liège. 
+En 2023-2024, ses livres Les morts ont la parole et Entretien avec un cadavre rencontrent un succès important à la suite de ses passages dans l'émission LEGEND de Guillaume Pley, chacun totalisant plusieurs millions de visionnages. Les ventes de ces livres (plus de 100 000 pour le premier, plus de 100 000 pour le deuxième) évitent de justesse la faillite à son éditeur. Dans le sillage de son succès, il est victime d'usurpation d'identité sur internet. Le 28 mars 2024, il est élu « Liégeois de l'année 2023 » dans la catégorie Citoyenneté par les lecteurs de La Meuse.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Boxho est divorcé et père de trois enfants[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Boxho est divorcé et père de trois enfants.
 </t>
         </is>
       </c>
@@ -613,16 +631,89 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Livres
-Déontologie du médecin  (préf. Benoît Dejemeppe), Limal, Anthemis, 17 mai 2022, 262 p. (ISBN 978-2-8072-0878-0)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Déontologie du médecin  (préf. Benoît Dejemeppe), Limal, Anthemis, 17 mai 2022, 262 p. (ISBN 978-2-8072-0878-0)
 Les morts ont la parole, Loverval, Kennes, coll. « Société », 1er juin 2022, 190 p. (ISBN 978-2-38075-697-5). 
-Entretien avec un cadavre : Un médecin légiste fait parler les morts, Gerpinnes, Kennes, 14 juin 2023, 216 p. (ISBN 978-2-38075-905-1, OCLC 1392169253)
-Chapitres
-« Aspects médico-légaux des drogues », dans Manuel de la Police, Kluwer, décembre 2001, p. 188-203
+Entretien avec un cadavre : Un médecin légiste fait parler les morts, Gerpinnes, Kennes, 14 juin 2023, 216 p. (ISBN 978-2-38075-905-1, OCLC 1392169253)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Boxho</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Boxho</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chapitres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Aspects médico-légaux des drogues », dans Manuel de la Police, Kluwer, décembre 2001, p. 188-203
 « Médecine légale », dans Anne Leriche, La criminalistique : Du mythe à la réalité quotidienne, Bruxelles, Kluwer, 2002, 414 p. (ISBN 9789059382626, OCLC 1400433541)
-« Conduite automobile, alcool, médicaments et substances psychotropes », dans La conduite sous influence, Bruxelles, Kluwer, 2002, 132 p. (OCLC 1400527078)
-Articles
-« La pratique de la mise en observation psychiatrique », Revue Médicale de Liège, Liège, Hôpital de Bavière, vol. 52,‎ 1996, p. 345-351 (ISSN 0370-629X)
+« Conduite automobile, alcool, médicaments et substances psychotropes », dans La conduite sous influence, Bruxelles, Kluwer, 2002, 132 p. (OCLC 1400527078)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe_Boxho</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Boxho</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« La pratique de la mise en observation psychiatrique », Revue Médicale de Liège, Liège, Hôpital de Bavière, vol. 52,‎ 1996, p. 345-351 (ISSN 0370-629X)
 « L'abus de prescription des substances soporifiques, stupéfiantes ou psychotropes », Revue Médicale de Liège, Liège, Hôpital de Bavière, vol. 54,‎ 1999, p. 814-818 (ISSN 0370-629X)
 « Loi de protection des malades mentaux. La mise en observation psychiatrique », L'Observatoire, Liège, vol. 21,‎ 1999, p. 26-31 (ISSN 0779-3677)
 « La notion d'incapacité de travail personnel », Revue de Droit Pénal et de Criminologie, Bruxelles, La Charte, vol. 1,‎ 1999, p. 67-84 (ISSN 0035-4384)
